--- a/Team-Data/2013-14/3-7-2013-14.xlsx
+++ b/Team-Data/2013-14/3-7-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.433</v>
+        <v>0.441</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
         <v>82.2</v>
@@ -690,37 +757,37 @@
         <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
         <v>16.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
         <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
         <v>40.3</v>
       </c>
       <c r="U2" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -732,31 +799,31 @@
         <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA2" t="n">
         <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
         <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
         <v>18</v>
       </c>
-      <c r="AG2" t="n">
-        <v>19</v>
-      </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -768,16 +835,16 @@
         <v>9</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -816,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.434</v>
@@ -878,34 +945,34 @@
         <v>19.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>11.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
         <v>20.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
         <v>4.5</v>
@@ -914,7 +981,7 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>19.2</v>
@@ -923,19 +990,19 @@
         <v>95.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -944,13 +1011,13 @@
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>22</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>25</v>
@@ -971,25 +1038,25 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J4" t="n">
         <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M4" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.364</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
         <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R4" t="n">
         <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
         <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
@@ -1099,28 +1166,28 @@
         <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
         <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
         <v>15</v>
       </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1132,16 +1199,16 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
@@ -1150,10 +1217,10 @@
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.468</v>
+        <v>0.459</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1233,25 +1300,25 @@
         <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R5" t="n">
         <v>9</v>
@@ -1260,7 +1327,7 @@
         <v>32.8</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
         <v>21.1</v>
@@ -1272,10 +1339,10 @@
         <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
         <v>18.3</v>
@@ -1287,10 +1354,10 @@
         <v>95.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1314,13 +1381,13 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1329,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1362,10 +1429,10 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I6" t="n">
         <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.431</v>
@@ -1421,40 +1488,40 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R6" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
         <v>33.1</v>
       </c>
       <c r="T6" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U6" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
@@ -1463,19 +1530,19 @@
         <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1502,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1529,10 +1596,10 @@
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="n">
-        <v>0.381</v>
+        <v>0.387</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
@@ -1606,31 +1673,31 @@
         <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
         <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="n">
         <v>0.75</v>
       </c>
       <c r="R7" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
@@ -1639,7 +1706,7 @@
         <v>3.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
@@ -1654,10 +1721,10 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1672,7 +1739,7 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>30</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1693,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>3</v>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.587</v>
+        <v>0.581</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1782,22 +1849,22 @@
         <v>0.473</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R8" t="n">
         <v>10</v>
@@ -1809,7 +1876,7 @@
         <v>40.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>13.4</v>
@@ -1821,22 +1888,22 @@
         <v>4.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
         <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC8" t="n">
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,10 +1918,10 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1863,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1887,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
@@ -1896,16 +1963,16 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.443</v>
+        <v>0.433</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L9" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
         <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="R9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S9" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
         <v>15.6</v>
@@ -2012,46 +2079,46 @@
         <v>21.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.3</v>
+        <v>102.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
         <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2063,19 +2130,19 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.387</v>
+        <v>0.393</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.449</v>
@@ -2149,37 +2216,37 @@
         <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.31</v>
+        <v>0.311</v>
       </c>
       <c r="O10" t="n">
         <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2191,37 +2258,37 @@
         <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
         <v>100.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2248,10 +2315,10 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>16</v>
@@ -2263,19 +2330,19 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.619</v>
+        <v>0.613</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J11" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L11" t="n">
         <v>9.1</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R11" t="n">
         <v>11.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
         <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.5</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2397,16 +2464,16 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2415,13 +2482,13 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>15</v>
@@ -2430,19 +2497,19 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2457,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2553,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.694</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
         <v>79.5</v>
@@ -2510,64 +2577,64 @@
         <v>0.476</v>
       </c>
       <c r="L12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M12" t="n">
         <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P12" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.696</v>
+        <v>0.695</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U12" t="n">
         <v>20.9</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
         <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA12" t="n">
         <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2579,7 +2646,7 @@
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2588,16 +2655,16 @@
         <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2612,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.742</v>
+        <v>0.754</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,7 +2753,7 @@
         <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K13" t="n">
         <v>0.453</v>
@@ -2698,13 +2765,13 @@
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q13" t="n">
         <v>0.783</v>
@@ -2713,16 +2780,16 @@
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
         <v>20.4</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
@@ -2737,16 +2804,16 @@
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2776,7 +2843,7 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>25</v>
@@ -2812,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2821,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="BC13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -2934,10 +3001,10 @@
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2958,22 +3025,22 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>14</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>18</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J15" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
@@ -3062,16 +3129,16 @@
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="O15" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P15" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R15" t="n">
         <v>9.199999999999999</v>
@@ -3080,10 +3147,10 @@
         <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U15" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V15" t="n">
         <v>15.5</v>
@@ -3101,25 +3168,25 @@
         <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="AC15" t="n">
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3128,13 +3195,13 @@
         <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3143,13 +3210,13 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3161,10 +3228,10 @@
         <v>23</v>
       </c>
       <c r="AU15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
@@ -3173,16 +3240,16 @@
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>28</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.574</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,37 +3299,37 @@
         <v>37.7</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
         <v>0.46</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U16" t="n">
         <v>21.7</v>
@@ -3277,22 +3344,22 @@
         <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA16" t="n">
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3352,7 +3419,7 @@
         <v>15</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>4</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="n">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,31 +3663,31 @@
         <v>35.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.429</v>
       </c>
       <c r="L18" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M18" t="n">
         <v>20.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O18" t="n">
         <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
         <v>0.756</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S18" t="n">
         <v>29.6</v>
@@ -3632,7 +3699,7 @@
         <v>21.2</v>
       </c>
       <c r="V18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
@@ -3647,16 +3714,16 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>27</v>
@@ -3698,16 +3765,16 @@
         <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>22</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
         <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3784,19 +3851,19 @@
         <v>0.439</v>
       </c>
       <c r="L19" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M19" t="n">
         <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
@@ -3805,7 +3872,7 @@
         <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T19" t="n">
         <v>45.7</v>
@@ -3817,10 +3884,10 @@
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
@@ -3832,22 +3899,22 @@
         <v>23.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -3883,10 +3950,10 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.403</v>
+        <v>0.393</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,49 +4027,49 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P20" t="n">
         <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
         <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
         <v>42</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4014,13 +4081,13 @@
         <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4035,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
@@ -4059,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>9</v>
@@ -4071,13 +4138,13 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4086,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.365</v>
+        <v>0.355</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
@@ -4145,13 +4212,13 @@
         <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N21" t="n">
         <v>0.366</v>
@@ -4163,22 +4230,22 @@
         <v>19.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W21" t="n">
         <v>7.6</v>
@@ -4190,28 +4257,28 @@
         <v>3.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA21" t="n">
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4262,7 +4329,7 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4271,13 +4338,13 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
@@ -4453,13 +4520,13 @@
         <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4599,13 +4666,13 @@
         <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4626,13 +4693,13 @@
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>12</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
@@ -4799,7 +4866,7 @@
         <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
@@ -4948,25 +5015,25 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
         <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4981,10 +5048,10 @@
         <v>13</v>
       </c>
       <c r="AU25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.677</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,28 +5119,28 @@
         <v>39.6</v>
       </c>
       <c r="J26" t="n">
-        <v>87.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="K26" t="n">
         <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M26" t="n">
         <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.822</v>
+        <v>0.824</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
@@ -5085,10 +5152,10 @@
         <v>46.5</v>
       </c>
       <c r="U26" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>5.6</v>
@@ -5100,34 +5167,34 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA26" t="n">
         <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="AC26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF26" t="n">
         <v>5</v>
       </c>
-      <c r="AD26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
@@ -5136,13 +5203,13 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5166,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5175,7 +5242,7 @@
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="n">
         <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.355</v>
+        <v>0.361</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J27" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.449</v>
@@ -5246,34 +5313,34 @@
         <v>18.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O27" t="n">
         <v>20.9</v>
       </c>
       <c r="P27" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.773</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V27" t="n">
         <v>15.1</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5285,25 +5352,25 @@
         <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5318,13 +5385,13 @@
         <v>17</v>
       </c>
       <c r="AL27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
         <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>6</v>
@@ -5345,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="AU27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>18</v>
@@ -5354,7 +5421,7 @@
         <v>18</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>24</v>
@@ -5366,10 +5433,10 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>6.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
         <v>3</v>
@@ -5530,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>17</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="n">
         <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5598,37 +5665,37 @@
         <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
         <v>0.441</v>
       </c>
       <c r="L29" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
         <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O29" t="n">
         <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q29" t="n">
         <v>0.776</v>
       </c>
       <c r="R29" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S29" t="n">
         <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
         <v>21.4</v>
@@ -5637,16 +5704,16 @@
         <v>14.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
@@ -5655,13 +5722,13 @@
         <v>100.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
         <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5676,37 +5743,37 @@
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
         <v>16</v>
@@ -5721,10 +5788,10 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K30" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
@@ -5807,19 +5874,19 @@
         <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
         <v>14.6</v>
       </c>
       <c r="W30" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5828,25 +5895,25 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
         <v>25</v>
@@ -5861,25 +5928,25 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
         <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
         <v>19</v>
@@ -5894,7 +5961,7 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5903,7 +5970,7 @@
         <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
@@ -5915,7 +5982,7 @@
         <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6076,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>6</v>
@@ -6097,7 +6164,7 @@
         <v>16</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-7-2013-14</t>
+          <t>2014-03-07</t>
         </is>
       </c>
     </row>
